--- a/team_specific_matrix/Col. of Charleston_A.xlsx
+++ b/team_specific_matrix/Col. of Charleston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1971153846153846</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C2">
-        <v>0.5192307692307693</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02403846153846154</v>
+        <v>0.01811594202898551</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1490384615384615</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1105769230769231</v>
+        <v>0.1050724637681159</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01526717557251908</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08396946564885496</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7557251908396947</v>
+        <v>0.7383720930232558</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1450381679389313</v>
+        <v>0.1569767441860465</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09677419354838709</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7096774193548387</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1935483870967742</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06060606060606061</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01818181818181818</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01818181818181818</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.296969696969697</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2303030303030303</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="R6">
-        <v>0.103030303030303</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="S6">
-        <v>0.2727272727272727</v>
+        <v>0.301980198019802</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.103448275862069</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008620689655172414</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03448275862068965</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2155172413793103</v>
+        <v>0.2026143790849673</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1896551724137931</v>
+        <v>0.2026143790849673</v>
       </c>
       <c r="R7">
-        <v>0.08620689655172414</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="S7">
-        <v>0.3620689655172414</v>
+        <v>0.3594771241830065</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07042253521126761</v>
+        <v>0.07568807339449542</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01690140845070422</v>
+        <v>0.02064220183486239</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04225352112676056</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1408450704225352</v>
+        <v>0.1399082568807339</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008450704225352112</v>
+        <v>0.006880733944954129</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1971830985915493</v>
+        <v>0.213302752293578</v>
       </c>
       <c r="R8">
-        <v>0.1211267605633803</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="S8">
-        <v>0.4028169014084507</v>
+        <v>0.3922018348623853</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1301369863013699</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02054794520547945</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="E9">
-        <v>0.00684931506849315</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F9">
-        <v>0.04794520547945205</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1232876712328767</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1780821917808219</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="R9">
-        <v>0.1232876712328767</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="S9">
-        <v>0.3698630136986301</v>
+        <v>0.3736263736263736</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0822550831792976</v>
+        <v>0.09288389513108614</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01756007393715342</v>
+        <v>0.0149812734082397</v>
       </c>
       <c r="E10">
-        <v>0.00277264325323475</v>
+        <v>0.002247191011235955</v>
       </c>
       <c r="F10">
-        <v>0.06839186691312385</v>
+        <v>0.06591760299625468</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1709796672828096</v>
+        <v>0.1610486891385768</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0166358595194085</v>
+        <v>0.01722846441947565</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1950092421441774</v>
+        <v>0.1932584269662921</v>
       </c>
       <c r="R10">
-        <v>0.1238447319778189</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="S10">
-        <v>0.3225508317929759</v>
+        <v>0.3363295880149813</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1229946524064171</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.106951871657754</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="K11">
-        <v>0.2192513368983957</v>
+        <v>0.2085106382978723</v>
       </c>
       <c r="L11">
-        <v>0.5294117647058824</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0213903743315508</v>
+        <v>0.01702127659574468</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6899999999999999</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.27</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="K12">
-        <v>0.01</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="L12">
-        <v>0.02</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01</v>
+        <v>0.03053435114503817</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.275</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.075</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04026845637583892</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1677852348993289</v>
+        <v>0.155440414507772</v>
       </c>
       <c r="I15">
-        <v>0.06711409395973154</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="J15">
-        <v>0.4429530201342282</v>
+        <v>0.4455958549222798</v>
       </c>
       <c r="K15">
-        <v>0.03355704697986577</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02684563758389262</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05369127516778523</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1677852348993289</v>
+        <v>0.1865284974093264</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02857142857142857</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1785714285714286</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="I16">
-        <v>0.05714285714285714</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="J16">
-        <v>0.3857142857142857</v>
+        <v>0.3966480446927375</v>
       </c>
       <c r="K16">
-        <v>0.1285714285714286</v>
+        <v>0.1173184357541899</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02142857142857143</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05714285714285714</v>
+        <v>0.05586592178770949</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1452513966480447</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0267379679144385</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1951871657754011</v>
+        <v>0.1913978494623656</v>
       </c>
       <c r="I17">
-        <v>0.09893048128342247</v>
+        <v>0.0989247311827957</v>
       </c>
       <c r="J17">
-        <v>0.4224598930481284</v>
+        <v>0.4150537634408602</v>
       </c>
       <c r="K17">
-        <v>0.07219251336898395</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0213903743315508</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04545454545454546</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1176470588235294</v>
+        <v>0.1182795698924731</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008928571428571428</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1651785714285714</v>
+        <v>0.1778656126482213</v>
       </c>
       <c r="I18">
-        <v>0.08928571428571429</v>
+        <v>0.08300395256916997</v>
       </c>
       <c r="J18">
-        <v>0.4151785714285715</v>
+        <v>0.4071146245059288</v>
       </c>
       <c r="K18">
-        <v>0.09821428571428571</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008928571428571428</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04464285714285714</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1696428571428572</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01708428246013667</v>
+        <v>0.01610017889087657</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.224373576309795</v>
+        <v>0.2164579606440072</v>
       </c>
       <c r="I19">
-        <v>0.08200455580865604</v>
+        <v>0.08407871198568873</v>
       </c>
       <c r="J19">
-        <v>0.3690205011389522</v>
+        <v>0.3819320214669052</v>
       </c>
       <c r="K19">
-        <v>0.1070615034168565</v>
+        <v>0.1064400715563506</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02733485193621868</v>
+        <v>0.0259391771019678</v>
       </c>
       <c r="N19">
-        <v>0.001138952164009112</v>
+        <v>0.0008944543828264759</v>
       </c>
       <c r="O19">
-        <v>0.07972665148063782</v>
+        <v>0.07871198568872988</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09225512528473805</v>
+        <v>0.08944543828264759</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Col. of Charleston_A.xlsx
+++ b/team_specific_matrix/Col. of Charleston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1956521739130435</v>
+        <v>0.1993127147766323</v>
       </c>
       <c r="C2">
-        <v>0.5326086956521739</v>
+        <v>0.5292096219931272</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01811594202898551</v>
+        <v>0.01718213058419244</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1485507246376812</v>
+        <v>0.1512027491408935</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1050724637681159</v>
+        <v>0.1030927835051546</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02325581395348837</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08139534883720931</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7383720930232558</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1569767441860465</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0594059405940594</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0198019801980198</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02475247524752475</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2821782178217822</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004950495049504951</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2128712871287129</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="R6">
-        <v>0.09405940594059406</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="S6">
-        <v>0.301980198019802</v>
+        <v>0.2991071428571428</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1176470588235294</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006535947712418301</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03267973856209151</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2026143790849673</v>
+        <v>0.2011834319526627</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006535947712418301</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2026143790849673</v>
+        <v>0.2130177514792899</v>
       </c>
       <c r="R7">
-        <v>0.0718954248366013</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.3594771241830065</v>
+        <v>0.3609467455621302</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07568807339449542</v>
+        <v>0.06860706860706861</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02064220183486239</v>
+        <v>0.02286902286902287</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04587155963302753</v>
+        <v>0.04781704781704782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1399082568807339</v>
+        <v>0.1413721413721414</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006880733944954129</v>
+        <v>0.006237006237006237</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.213302752293578</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="R8">
-        <v>0.1055045871559633</v>
+        <v>0.1018711018711019</v>
       </c>
       <c r="S8">
-        <v>0.3922018348623853</v>
+        <v>0.395010395010395</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1318681318681319</v>
+        <v>0.1310679611650485</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01648351648351648</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E9">
-        <v>0.005494505494505495</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F9">
-        <v>0.06593406593406594</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1263736263736264</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1758241758241758</v>
+        <v>0.1796116504854369</v>
       </c>
       <c r="R9">
-        <v>0.1043956043956044</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="S9">
-        <v>0.3736263736263736</v>
+        <v>0.3640776699029126</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09288389513108614</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0149812734082397</v>
+        <v>0.0135685210312076</v>
       </c>
       <c r="E10">
-        <v>0.002247191011235955</v>
+        <v>0.00203527815468114</v>
       </c>
       <c r="F10">
-        <v>0.06591760299625468</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1610486891385768</v>
+        <v>0.155359565807327</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01722846441947565</v>
+        <v>0.01831750339213026</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1932584269662921</v>
+        <v>0.1913161465400271</v>
       </c>
       <c r="R10">
-        <v>0.1161048689138577</v>
+        <v>0.1255088195386703</v>
       </c>
       <c r="S10">
-        <v>0.3363295880149813</v>
+        <v>0.3371777476255088</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1276595744680851</v>
+        <v>0.1259541984732824</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09361702127659574</v>
+        <v>0.08778625954198473</v>
       </c>
       <c r="K11">
-        <v>0.2085106382978723</v>
+        <v>0.2022900763358779</v>
       </c>
       <c r="L11">
-        <v>0.5531914893617021</v>
+        <v>0.5687022900763359</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01702127659574468</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7251908396946565</v>
+        <v>0.722972972972973</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2137404580152672</v>
+        <v>0.222972972972973</v>
       </c>
       <c r="K12">
-        <v>0.007633587786259542</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L12">
-        <v>0.02290076335877863</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03053435114503817</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6458333333333334</v>
+        <v>0.64</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2708333333333333</v>
+        <v>0.28</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03626943005181347</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.155440414507772</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.06735751295336788</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J15">
-        <v>0.4455958549222798</v>
+        <v>0.4398148148148148</v>
       </c>
       <c r="K15">
-        <v>0.03626943005181347</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02590673575129534</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04663212435233161</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1865284974093264</v>
+        <v>0.1759259259259259</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0223463687150838</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1843575418994413</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I16">
-        <v>0.05027932960893855</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J16">
-        <v>0.3966480446927375</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K16">
-        <v>0.1173184357541899</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02793296089385475</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05586592178770949</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1452513966480447</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02580645161290323</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1913978494623656</v>
+        <v>0.1871345029239766</v>
       </c>
       <c r="I17">
-        <v>0.0989247311827957</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="J17">
-        <v>0.4150537634408602</v>
+        <v>0.4191033138401559</v>
       </c>
       <c r="K17">
-        <v>0.07526881720430108</v>
+        <v>0.07992202729044834</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01720430107526882</v>
+        <v>0.01559454191033138</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05806451612903226</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1182795698924731</v>
+        <v>0.1169590643274854</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007905138339920948</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1778656126482213</v>
+        <v>0.1912751677852349</v>
       </c>
       <c r="I18">
-        <v>0.08300395256916997</v>
+        <v>0.07718120805369127</v>
       </c>
       <c r="J18">
-        <v>0.4071146245059288</v>
+        <v>0.4026845637583892</v>
       </c>
       <c r="K18">
-        <v>0.09881422924901186</v>
+        <v>0.09731543624161074</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007905138339920948</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04347826086956522</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1739130434782609</v>
+        <v>0.1644295302013423</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01610017889087657</v>
+        <v>0.01627339300244101</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2164579606440072</v>
+        <v>0.2107404393816111</v>
       </c>
       <c r="I19">
-        <v>0.08407871198568873</v>
+        <v>0.08787632221318145</v>
       </c>
       <c r="J19">
-        <v>0.3819320214669052</v>
+        <v>0.386493083807974</v>
       </c>
       <c r="K19">
-        <v>0.1064400715563506</v>
+        <v>0.1049633848657445</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0259391771019678</v>
+        <v>0.02441008950366151</v>
       </c>
       <c r="N19">
-        <v>0.0008944543828264759</v>
+        <v>0.0008136696501220504</v>
       </c>
       <c r="O19">
-        <v>0.07871198568872988</v>
+        <v>0.07973962571196094</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08944543828264759</v>
+        <v>0.08868999186330349</v>
       </c>
     </row>
   </sheetData>
